--- a/Figure 3/data.xlsx
+++ b/Figure 3/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indianinstituteofscience-my.sharepoint.com/personal/ushasiroy_iisc_ac_in/Documents/spatial_grn/motifs_pilot_study/Chin's code/Toggle Triad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinmaykh/Documents/GitHub/Spatial_GRN/Figure 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="8_{1FDE29B9-B1A8-8640-9BB2-16A931232AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36681A77-9EC8-B44D-9164-DD078F6BDF8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB79FCB-4CB4-9449-9294-2342A08AB044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{E24B23A1-37ED-43E0-8217-7D7982FAEB55}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t>Prod_of_A</t>
   </si>
@@ -260,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -369,11 +347,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,11 +453,954 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -595,35 +1538,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17DC8943-49C8-5D46-ABE5-D40C25526982}" name="Table1" displayName="Table1" ref="A1:Z109" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17DC8943-49C8-5D46-ABE5-D40C25526982}" name="Table1" displayName="Table1" ref="A1:Z109" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="A1:Z109" xr:uid="{17DC8943-49C8-5D46-ABE5-D40C25526982}"/>
   <tableColumns count="26">
-    <tableColumn id="26" xr3:uid="{723D8E48-8FCF-5E4A-80CC-AA1EE971C403}" name="Index" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{AD1A22CF-B8D5-8A48-9CBC-A71C72A6631F}" name="Prod_of_A" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{963DF8D5-9572-D547-AD8E-8DE03E8AF215}" name="Prod_of_B" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A22C1704-4AEA-6F44-AB49-8E6229753E7D}" name="Prod_of_C" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{A1A10B4D-76FA-DF44-8B21-DDF2191A9537}" name="Deg_of_A" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{8EFB2028-0FA3-6A44-A90A-BACA5803B1E4}" name="Deg_of_B" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{A759BF05-558D-A241-AD0C-9BE8615583F1}" name="Deg_of_C" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{AE1F58B0-DD7B-5340-8644-18B6FAE0DFE7}" name="Trd_of_CToA" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{242C5B66-4EEB-1849-8F03-7E0B03679FE4}" name="Num_of_CToA" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{3F21A616-6081-8C4F-AB70-48766BD4EAA6}" name="Inh_of_CToA" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{2F556E16-F681-4044-81E5-AB536C27BA96}" name="Trd_of_BToA" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{0B4CB554-3751-ED45-9751-E5128F43C1EC}" name="Num_of_BToA" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{A0BE0D43-47AC-5443-B536-E326075E0222}" name="Inh_of_BToA" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{A11F0EF9-7174-F541-AE2E-6E2B6A1241BB}" name="Trd_of_AToB" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{9ED9719A-5CB4-9542-984B-FEF94EAD07BC}" name="Num_of_AToB" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{B55D227D-5D2A-D34F-B5B2-A444E8DD999E}" name="Inh_of_AToB" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{7F59B823-FCB1-C242-BAC2-A1DF145B6CBD}" name="Trd_of_CToB" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{4F207774-BB86-004E-AFF0-F8113A2C1E1E}" name="Num_of_CToB" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{53859A54-0B3E-654F-90C5-B97E5659D042}" name="Inh_of_CToB" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{DB1DE6A9-ED41-7846-B12B-FCA6A027F453}" name="Trd_of_BToC" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{8B758387-2D82-E149-848B-C8D10A7A6B1A}" name="Num_of_BToC" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{F2ED3414-6C0F-A543-B6C8-5001CC585F38}" name="Inh_of_BToC" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{26222418-F6B0-1542-A68F-8A5E2419C71D}" name="Trd_of_AToC" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{7F86D5A0-272E-F54C-8D9C-B0AADA81D072}" name="Num_of_AToC" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{80D1E681-ED13-6142-AC5B-44BBB014B91C}" name="Inh_of_AToC" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{9694053C-2A16-8347-A111-4B7351AE88DE}" name="States" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{723D8E48-8FCF-5E4A-80CC-AA1EE971C403}" name="Index" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{AD1A22CF-B8D5-8A48-9CBC-A71C72A6631F}" name="Prod_of_A" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{963DF8D5-9572-D547-AD8E-8DE03E8AF215}" name="Prod_of_B" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{A22C1704-4AEA-6F44-AB49-8E6229753E7D}" name="Prod_of_C" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{A1A10B4D-76FA-DF44-8B21-DDF2191A9537}" name="Deg_of_A" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{8EFB2028-0FA3-6A44-A90A-BACA5803B1E4}" name="Deg_of_B" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{A759BF05-558D-A241-AD0C-9BE8615583F1}" name="Deg_of_C" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{AE1F58B0-DD7B-5340-8644-18B6FAE0DFE7}" name="Trd_of_CToA" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{242C5B66-4EEB-1849-8F03-7E0B03679FE4}" name="Num_of_CToA" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{3F21A616-6081-8C4F-AB70-48766BD4EAA6}" name="Inh_of_CToA" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{2F556E16-F681-4044-81E5-AB536C27BA96}" name="Trd_of_BToA" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{0B4CB554-3751-ED45-9751-E5128F43C1EC}" name="Num_of_BToA" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{A0BE0D43-47AC-5443-B536-E326075E0222}" name="Inh_of_BToA" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{A11F0EF9-7174-F541-AE2E-6E2B6A1241BB}" name="Trd_of_AToB" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{9ED9719A-5CB4-9542-984B-FEF94EAD07BC}" name="Num_of_AToB" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{B55D227D-5D2A-D34F-B5B2-A444E8DD999E}" name="Inh_of_AToB" dataDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{7F59B823-FCB1-C242-BAC2-A1DF145B6CBD}" name="Trd_of_CToB" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{4F207774-BB86-004E-AFF0-F8113A2C1E1E}" name="Num_of_CToB" dataDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{53859A54-0B3E-654F-90C5-B97E5659D042}" name="Inh_of_CToB" dataDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{DB1DE6A9-ED41-7846-B12B-FCA6A027F453}" name="Trd_of_BToC" dataDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{8B758387-2D82-E149-848B-C8D10A7A6B1A}" name="Num_of_BToC" dataDxfId="32"/>
+    <tableColumn id="21" xr3:uid="{F2ED3414-6C0F-A543-B6C8-5001CC585F38}" name="Inh_of_BToC" dataDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{26222418-F6B0-1542-A68F-8A5E2419C71D}" name="Trd_of_AToC" dataDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{7F86D5A0-272E-F54C-8D9C-B0AADA81D072}" name="Num_of_AToC" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{80D1E681-ED13-6142-AC5B-44BBB014B91C}" name="Inh_of_AToC" dataDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{9694053C-2A16-8347-A111-4B7351AE88DE}" name="States" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F79072A8-E5B2-B148-91C6-7D6FBF106CEB}" name="Table2" displayName="Table2" ref="A1:AH7" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25">
+  <autoFilter ref="A1:AH7" xr:uid="{F79072A8-E5B2-B148-91C6-7D6FBF106CEB}"/>
+  <tableColumns count="34">
+    <tableColumn id="35" xr3:uid="{A272EB03-D151-924C-937D-7DDFE5186110}" name="Index" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{C569D84D-D154-E94A-998D-28D56C22BEEF}" name="Prod_of_A" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{3B17BA36-603A-304A-BF86-8D98359018B4}" name="Prod_of_B" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{C5FDAC14-404E-0749-81C4-B3C2322980ED}" name="Prod_of_C" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{94E924BC-C751-204D-AC53-439813F13935}" name="Deg_of_A" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{988F3F43-EE25-F943-9058-3026CF7FA37A}" name="Deg_of_B" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{7A25520B-A5B8-1948-A4E4-A30F601B1310}" name="Deg_of_C" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{A2F966C9-51C8-B846-9D4B-C2BC133748B3}" name="Trd_of_CToA" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{9177D3EF-E8F0-0B4D-BE1F-9671D7415546}" name="Num_of_CToA" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{1A7956CB-9B56-244D-8AD6-C1F235DC051C}" name="Inh_of_CToA" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{B8B90C7B-E5FC-7C41-936A-D3FF46CC7543}" name="Trd_of_BToA" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{7356C6B1-A87F-954F-A734-13673833A115}" name="Num_of_BToA" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{9F892EF6-CA2F-F049-A249-735E0C43C1FA}" name="Inh_of_BToA" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{F4823D7B-D1EF-7045-B859-EEAD9D2B3D00}" name="Trd_of_AToB" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{9A323220-639E-5244-9C0E-50AEC44BABDB}" name="Num_of_AToB" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{569051AC-5C67-674E-B957-FCF70D421F32}" name="Inh_of_AToB" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{E814F366-DCD6-5849-AAC5-0A4512E99205}" name="Trd_of_CToB" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{DFF4E58B-C11D-B94A-9DC0-8563E57C1739}" name="Num_of_CToB" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{126CAC1C-527A-7C45-A6DC-AE8D786AFEB2}" name="Inh_of_CToB" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{3A5BEC77-7948-B44F-B423-C624DC2D418F}" name="Trd_of_BToC" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{5ADAF9EB-9152-B24A-8666-7081782D4BC8}" name="Num_of_BToC" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{38E6458D-CF60-2C4D-A45C-44DC1FC485E8}" name="Inh_of_BToC" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{A985B43F-E7B2-A841-A70E-D98BE0841E51}" name="Trd_of_AToC" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{7ADCD324-3A0A-3247-A4BE-08803BAFFEEE}" name="Num_of_AToC" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{113C0E39-09C6-1844-A2AC-25D04DCC027D}" name="Inh_of_AToC" dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{0F13F712-E945-934C-9DBF-9E48646BBDF3}" name="Inh_of_AToA"/>
+    <tableColumn id="26" xr3:uid="{92EA5A74-C069-C449-A355-C016D8A5C969}" name="Inh_of_BToB"/>
+    <tableColumn id="27" xr3:uid="{FE83AA66-C91A-FB42-8D2F-DEFBD0BD2F7E}" name="Inh_of_CToC"/>
+    <tableColumn id="28" xr3:uid="{B69097BF-B7B6-4A42-98A2-245992087335}" name="Num_of_AToA"/>
+    <tableColumn id="29" xr3:uid="{80906E51-1FA3-3248-A8AC-EC4724CCA0FA}" name="Num_of_CToC"/>
+    <tableColumn id="30" xr3:uid="{ECCA9BA9-DDAB-6E4E-B0E4-42BFF16B332C}" name="Num_of_BToB"/>
+    <tableColumn id="31" xr3:uid="{E401AFF0-861A-7642-9293-53A16EFFDA69}" name="Trd_of_AToA"/>
+    <tableColumn id="32" xr3:uid="{2F66585F-2894-614C-BFCC-9976AAC29882}" name="Trd_of_CToC"/>
+    <tableColumn id="33" xr3:uid="{C011E82A-E62A-2841-8380-C66A87FEC5EA}" name="Trd_of_BToB"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7173F693-3072-4CAB-8185-A7D8451CC68B}">
   <dimension ref="A1:AI109"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9517,10 +10503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25721915-59D3-EF49-84B7-1D3D391D9B8F}">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10438,6 +11424,12 @@
       </c>
       <c r="X12" s="28">
         <v>1.3525000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>A12/D12</f>
+        <v>45.882717703660134</v>
       </c>
     </row>
   </sheetData>
@@ -10447,202 +11439,1550 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7679D13-2DE8-8349-AB91-AF49399004AC}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="13" width="12.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="25" width="12.1640625" customWidth="1"/>
+    <col min="26" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="29" max="30" width="13.1640625" customWidth="1"/>
+    <col min="31" max="31" width="12.1640625" customWidth="1"/>
+    <col min="32" max="33" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9">
-        <f>A2</f>
-        <v>5</v>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4</v>
       </c>
       <c r="C2" s="9">
         <f>B2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9">
-        <v>0.9</v>
+        <f>C2</f>
+        <v>4</v>
       </c>
       <c r="E2" s="9">
-        <f>D2</f>
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="9">
         <f>E2</f>
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="9">
+        <f>F2</f>
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>3</v>
+      </c>
+      <c r="L2" s="9">
+        <v>4</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" ref="N2" si="0">H2</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" ref="O2" si="1">I2</f>
+        <v>3</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" ref="P2" si="2">J2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2" si="3">K2</f>
+        <v>3</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" ref="R2" si="4">L2</f>
+        <v>4</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" ref="S2" si="5">M2</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" ref="T2" si="6">N2</f>
+        <v>2</v>
+      </c>
+      <c r="U2" s="9">
+        <f t="shared" ref="U2" si="7">O2</f>
+        <v>3</v>
+      </c>
+      <c r="V2" s="9">
+        <f t="shared" ref="V2" si="8">P2</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" ref="W2" si="9">Q2</f>
+        <v>3</v>
+      </c>
+      <c r="X2" s="9">
+        <f t="shared" ref="X2" si="10">R2</f>
+        <v>4</v>
+      </c>
+      <c r="Y2" s="10">
+        <f t="shared" ref="Y2" si="11">S2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <f>B3</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="9">
+        <f>E3</f>
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="9">
+        <f>F3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>3</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3:Y3" si="12">H3</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y3" s="10">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>3</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2</v>
+      </c>
+      <c r="R4" s="9">
+        <v>3</v>
+      </c>
+      <c r="S4" s="9">
         <v>0.9</v>
       </c>
-      <c r="G2" s="9">
-        <v>2</v>
-      </c>
-      <c r="H2" s="9">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="T4" s="9">
+        <v>2</v>
+      </c>
+      <c r="U4" s="9">
+        <v>3</v>
+      </c>
+      <c r="V4" s="9">
         <v>0.9</v>
       </c>
-      <c r="J2" s="9">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9">
-        <v>3</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="W4" s="9">
+        <v>2</v>
+      </c>
+      <c r="X4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="10">
         <v>0.1</v>
       </c>
-      <c r="M2" s="9">
-        <f>G2</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="9">
-        <f>H2</f>
-        <v>3</v>
-      </c>
-      <c r="O2" s="9">
-        <f>I2</f>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="9">
+        <v>2</v>
+      </c>
+      <c r="O5" s="9">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>3</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2</v>
+      </c>
+      <c r="U5" s="9">
+        <v>3</v>
+      </c>
+      <c r="V5" s="9">
+        <f>Table2[[#This Row],[Inh_of_CToB]]</f>
+        <v>0.17</v>
+      </c>
+      <c r="W5" s="9">
+        <v>2</v>
+      </c>
+      <c r="X5" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <f>B6</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <f>C6</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="9">
+        <f>E6</f>
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="9">
+        <f>F6</f>
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9">
         <v>0.9</v>
       </c>
-      <c r="P2" s="9" cm="1">
-        <f t="array" ref="P2:R2">J2:L2</f>
-        <v>2</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>3</v>
-      </c>
-      <c r="R2" s="9">
+      <c r="N6" s="9">
+        <f t="shared" ref="N6:N7" si="13">H6</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" ref="O6:O7" si="14">I6</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6:P7" si="15">J6</f>
         <v>0.1</v>
       </c>
-      <c r="S2" s="9">
-        <f>M2</f>
-        <v>2</v>
-      </c>
-      <c r="T2" s="9">
-        <f>N2</f>
-        <v>3</v>
-      </c>
-      <c r="U2" s="9">
-        <f>O2</f>
+      <c r="Q6" s="9">
+        <f t="shared" ref="Q6:Q7" si="16">K6</f>
+        <v>2</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" ref="R6:R7" si="17">L6</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" ref="S6:S7" si="18">M6</f>
         <v>0.9</v>
       </c>
-      <c r="V2" s="9" cm="1">
-        <f t="array" ref="V2:X2">_xlfn.ANCHORARRAY(P2)</f>
-        <v>2</v>
-      </c>
-      <c r="W2" s="9">
-        <v>3</v>
-      </c>
-      <c r="X2" s="10">
+      <c r="T6" s="9">
+        <f t="shared" ref="T6:T7" si="19">N6</f>
+        <v>2</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" ref="U6:U7" si="20">O6</f>
+        <v>3</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" ref="V6:V7" si="21">P6</f>
         <v>0.1</v>
       </c>
+      <c r="W6" s="9">
+        <f t="shared" ref="W6:W7" si="22">Q6</f>
+        <v>2</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" ref="X6:X7" si="23">R6</f>
+        <v>3</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" ref="Y6:Y7" si="24">S6</f>
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29">
+        <v>20</v>
+      </c>
+      <c r="C7" s="32">
+        <f>B7</f>
+        <v>20</v>
+      </c>
+      <c r="D7" s="32">
+        <f>C7</f>
+        <v>20</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="32">
+        <f>E7</f>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="32">
+        <f>F7</f>
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="32">
+        <v>2</v>
+      </c>
+      <c r="I7" s="32">
+        <v>3</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="32">
+        <f>Table2[[#This Row],[Trd_of_CToA]]</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="32">
+        <f>Table2[[#This Row],[Num_of_CToA]]</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="32">
+        <f>Table2[[#This Row],[Inh_of_CToA]]</f>
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="32">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="32">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="P7" s="32">
+        <f t="shared" si="15"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q7" s="32">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R7" s="32">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="S7" s="32">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="T7" s="32">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="U7" s="32">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="V7" s="32">
+        <f t="shared" si="21"/>
+        <v>0.15</v>
+      </c>
+      <c r="W7" s="32">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="X7" s="32">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="33">
+        <f t="shared" si="24"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M4">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J4">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M4">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P4">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S4">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V4">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y4">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S4">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V4">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S5 S8:S1048576">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V5">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y5">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S5">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P5">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J7 M2:M7 P2:P7 S2:S7 V2:V7 Y2:Y7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Figure 3/data.xlsx
+++ b/Figure 3/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinmaykh/Documents/GitHub/Spatial_GRN/Figure 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB79FCB-4CB4-9449-9294-2342A08AB044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA86D36E-93A6-DE4A-99DB-7D9BB0198F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{E24B23A1-37ED-43E0-8217-7D7982FAEB55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>Prod_of_A</t>
   </si>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t>S13</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Triad</t>
+  </si>
+  <si>
+    <t>BC Mixed</t>
+  </si>
+  <si>
+    <t>BC Mixed Threshold</t>
+  </si>
+  <si>
+    <t>Repressilator (Worked)</t>
+  </si>
+  <si>
+    <t>Repressilator (Limit 0)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +483,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1538,69 +1597,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17DC8943-49C8-5D46-ABE5-D40C25526982}" name="Table1" displayName="Table1" ref="A1:Z109" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17DC8943-49C8-5D46-ABE5-D40C25526982}" name="Table1" displayName="Table1" ref="A1:Z109" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
   <autoFilter ref="A1:Z109" xr:uid="{17DC8943-49C8-5D46-ABE5-D40C25526982}"/>
   <tableColumns count="26">
-    <tableColumn id="26" xr3:uid="{723D8E48-8FCF-5E4A-80CC-AA1EE971C403}" name="Index" dataDxfId="52"/>
-    <tableColumn id="1" xr3:uid="{AD1A22CF-B8D5-8A48-9CBC-A71C72A6631F}" name="Prod_of_A" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{963DF8D5-9572-D547-AD8E-8DE03E8AF215}" name="Prod_of_B" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{A22C1704-4AEA-6F44-AB49-8E6229753E7D}" name="Prod_of_C" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{A1A10B4D-76FA-DF44-8B21-DDF2191A9537}" name="Deg_of_A" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{8EFB2028-0FA3-6A44-A90A-BACA5803B1E4}" name="Deg_of_B" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{A759BF05-558D-A241-AD0C-9BE8615583F1}" name="Deg_of_C" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{AE1F58B0-DD7B-5340-8644-18B6FAE0DFE7}" name="Trd_of_CToA" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{242C5B66-4EEB-1849-8F03-7E0B03679FE4}" name="Num_of_CToA" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{3F21A616-6081-8C4F-AB70-48766BD4EAA6}" name="Inh_of_CToA" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{2F556E16-F681-4044-81E5-AB536C27BA96}" name="Trd_of_BToA" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{0B4CB554-3751-ED45-9751-E5128F43C1EC}" name="Num_of_BToA" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{A0BE0D43-47AC-5443-B536-E326075E0222}" name="Inh_of_BToA" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{A11F0EF9-7174-F541-AE2E-6E2B6A1241BB}" name="Trd_of_AToB" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{9ED9719A-5CB4-9542-984B-FEF94EAD07BC}" name="Num_of_AToB" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{B55D227D-5D2A-D34F-B5B2-A444E8DD999E}" name="Inh_of_AToB" dataDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{7F59B823-FCB1-C242-BAC2-A1DF145B6CBD}" name="Trd_of_CToB" dataDxfId="36"/>
-    <tableColumn id="17" xr3:uid="{4F207774-BB86-004E-AFF0-F8113A2C1E1E}" name="Num_of_CToB" dataDxfId="35"/>
-    <tableColumn id="18" xr3:uid="{53859A54-0B3E-654F-90C5-B97E5659D042}" name="Inh_of_CToB" dataDxfId="34"/>
-    <tableColumn id="19" xr3:uid="{DB1DE6A9-ED41-7846-B12B-FCA6A027F453}" name="Trd_of_BToC" dataDxfId="33"/>
-    <tableColumn id="20" xr3:uid="{8B758387-2D82-E149-848B-C8D10A7A6B1A}" name="Num_of_BToC" dataDxfId="32"/>
-    <tableColumn id="21" xr3:uid="{F2ED3414-6C0F-A543-B6C8-5001CC585F38}" name="Inh_of_BToC" dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{26222418-F6B0-1542-A68F-8A5E2419C71D}" name="Trd_of_AToC" dataDxfId="30"/>
-    <tableColumn id="23" xr3:uid="{7F86D5A0-272E-F54C-8D9C-B0AADA81D072}" name="Num_of_AToC" dataDxfId="29"/>
-    <tableColumn id="24" xr3:uid="{80D1E681-ED13-6142-AC5B-44BBB014B91C}" name="Inh_of_AToC" dataDxfId="28"/>
-    <tableColumn id="25" xr3:uid="{9694053C-2A16-8347-A111-4B7351AE88DE}" name="States" dataDxfId="27"/>
+    <tableColumn id="26" xr3:uid="{723D8E48-8FCF-5E4A-80CC-AA1EE971C403}" name="Index" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{AD1A22CF-B8D5-8A48-9CBC-A71C72A6631F}" name="Prod_of_A" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{963DF8D5-9572-D547-AD8E-8DE03E8AF215}" name="Prod_of_B" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{A22C1704-4AEA-6F44-AB49-8E6229753E7D}" name="Prod_of_C" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{A1A10B4D-76FA-DF44-8B21-DDF2191A9537}" name="Deg_of_A" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{8EFB2028-0FA3-6A44-A90A-BACA5803B1E4}" name="Deg_of_B" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{A759BF05-558D-A241-AD0C-9BE8615583F1}" name="Deg_of_C" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{AE1F58B0-DD7B-5340-8644-18B6FAE0DFE7}" name="Trd_of_CToA" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{242C5B66-4EEB-1849-8F03-7E0B03679FE4}" name="Num_of_CToA" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{3F21A616-6081-8C4F-AB70-48766BD4EAA6}" name="Inh_of_CToA" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{2F556E16-F681-4044-81E5-AB536C27BA96}" name="Trd_of_BToA" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{0B4CB554-3751-ED45-9751-E5128F43C1EC}" name="Num_of_BToA" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{A0BE0D43-47AC-5443-B536-E326075E0222}" name="Inh_of_BToA" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{A11F0EF9-7174-F541-AE2E-6E2B6A1241BB}" name="Trd_of_AToB" dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{9ED9719A-5CB4-9542-984B-FEF94EAD07BC}" name="Num_of_AToB" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{B55D227D-5D2A-D34F-B5B2-A444E8DD999E}" name="Inh_of_AToB" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{7F59B823-FCB1-C242-BAC2-A1DF145B6CBD}" name="Trd_of_CToB" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{4F207774-BB86-004E-AFF0-F8113A2C1E1E}" name="Num_of_CToB" dataDxfId="36"/>
+    <tableColumn id="18" xr3:uid="{53859A54-0B3E-654F-90C5-B97E5659D042}" name="Inh_of_CToB" dataDxfId="35"/>
+    <tableColumn id="19" xr3:uid="{DB1DE6A9-ED41-7846-B12B-FCA6A027F453}" name="Trd_of_BToC" dataDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{8B758387-2D82-E149-848B-C8D10A7A6B1A}" name="Num_of_BToC" dataDxfId="33"/>
+    <tableColumn id="21" xr3:uid="{F2ED3414-6C0F-A543-B6C8-5001CC585F38}" name="Inh_of_BToC" dataDxfId="32"/>
+    <tableColumn id="22" xr3:uid="{26222418-F6B0-1542-A68F-8A5E2419C71D}" name="Trd_of_AToC" dataDxfId="31"/>
+    <tableColumn id="23" xr3:uid="{7F86D5A0-272E-F54C-8D9C-B0AADA81D072}" name="Num_of_AToC" dataDxfId="30"/>
+    <tableColumn id="24" xr3:uid="{80D1E681-ED13-6142-AC5B-44BBB014B91C}" name="Inh_of_AToC" dataDxfId="29"/>
+    <tableColumn id="25" xr3:uid="{9694053C-2A16-8347-A111-4B7351AE88DE}" name="States" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F79072A8-E5B2-B148-91C6-7D6FBF106CEB}" name="Table2" displayName="Table2" ref="A1:AH7" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25">
-  <autoFilter ref="A1:AH7" xr:uid="{F79072A8-E5B2-B148-91C6-7D6FBF106CEB}"/>
-  <tableColumns count="34">
-    <tableColumn id="35" xr3:uid="{A272EB03-D151-924C-937D-7DDFE5186110}" name="Index" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{C569D84D-D154-E94A-998D-28D56C22BEEF}" name="Prod_of_A" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{3B17BA36-603A-304A-BF86-8D98359018B4}" name="Prod_of_B" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{C5FDAC14-404E-0749-81C4-B3C2322980ED}" name="Prod_of_C" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{94E924BC-C751-204D-AC53-439813F13935}" name="Deg_of_A" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{988F3F43-EE25-F943-9058-3026CF7FA37A}" name="Deg_of_B" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{7A25520B-A5B8-1948-A4E4-A30F601B1310}" name="Deg_of_C" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{A2F966C9-51C8-B846-9D4B-C2BC133748B3}" name="Trd_of_CToA" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{9177D3EF-E8F0-0B4D-BE1F-9671D7415546}" name="Num_of_CToA" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{1A7956CB-9B56-244D-8AD6-C1F235DC051C}" name="Inh_of_CToA" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{B8B90C7B-E5FC-7C41-936A-D3FF46CC7543}" name="Trd_of_BToA" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{7356C6B1-A87F-954F-A734-13673833A115}" name="Num_of_BToA" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{9F892EF6-CA2F-F049-A249-735E0C43C1FA}" name="Inh_of_BToA" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{F4823D7B-D1EF-7045-B859-EEAD9D2B3D00}" name="Trd_of_AToB" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{9A323220-639E-5244-9C0E-50AEC44BABDB}" name="Num_of_AToB" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{569051AC-5C67-674E-B957-FCF70D421F32}" name="Inh_of_AToB" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{E814F366-DCD6-5849-AAC5-0A4512E99205}" name="Trd_of_CToB" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{DFF4E58B-C11D-B94A-9DC0-8563E57C1739}" name="Num_of_CToB" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{126CAC1C-527A-7C45-A6DC-AE8D786AFEB2}" name="Inh_of_CToB" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{3A5BEC77-7948-B44F-B423-C624DC2D418F}" name="Trd_of_BToC" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{5ADAF9EB-9152-B24A-8666-7081782D4BC8}" name="Num_of_BToC" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{38E6458D-CF60-2C4D-A45C-44DC1FC485E8}" name="Inh_of_BToC" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{A985B43F-E7B2-A841-A70E-D98BE0841E51}" name="Trd_of_AToC" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{7ADCD324-3A0A-3247-A4BE-08803BAFFEEE}" name="Num_of_AToC" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{113C0E39-09C6-1844-A2AC-25D04DCC027D}" name="Inh_of_AToC" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F79072A8-E5B2-B148-91C6-7D6FBF106CEB}" name="Table2" displayName="Table2" ref="A1:AI7" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26">
+  <autoFilter ref="A1:AI7" xr:uid="{F79072A8-E5B2-B148-91C6-7D6FBF106CEB}"/>
+  <tableColumns count="35">
+    <tableColumn id="34" xr3:uid="{D7A1A60A-E671-5A4C-96A9-ECD0200E3904}" name="Name" dataDxfId="0"/>
+    <tableColumn id="35" xr3:uid="{A272EB03-D151-924C-937D-7DDFE5186110}" name="Index" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{C569D84D-D154-E94A-998D-28D56C22BEEF}" name="Prod_of_A" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3B17BA36-603A-304A-BF86-8D98359018B4}" name="Prod_of_B" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C5FDAC14-404E-0749-81C4-B3C2322980ED}" name="Prod_of_C" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{94E924BC-C751-204D-AC53-439813F13935}" name="Deg_of_A" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{988F3F43-EE25-F943-9058-3026CF7FA37A}" name="Deg_of_B" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{7A25520B-A5B8-1948-A4E4-A30F601B1310}" name="Deg_of_C" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A2F966C9-51C8-B846-9D4B-C2BC133748B3}" name="Trd_of_CToA" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{9177D3EF-E8F0-0B4D-BE1F-9671D7415546}" name="Num_of_CToA" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{1A7956CB-9B56-244D-8AD6-C1F235DC051C}" name="Inh_of_CToA" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{B8B90C7B-E5FC-7C41-936A-D3FF46CC7543}" name="Trd_of_BToA" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{7356C6B1-A87F-954F-A734-13673833A115}" name="Num_of_BToA" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{9F892EF6-CA2F-F049-A249-735E0C43C1FA}" name="Inh_of_BToA" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{F4823D7B-D1EF-7045-B859-EEAD9D2B3D00}" name="Trd_of_AToB" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{9A323220-639E-5244-9C0E-50AEC44BABDB}" name="Num_of_AToB" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{569051AC-5C67-674E-B957-FCF70D421F32}" name="Inh_of_AToB" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{E814F366-DCD6-5849-AAC5-0A4512E99205}" name="Trd_of_CToB" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{DFF4E58B-C11D-B94A-9DC0-8563E57C1739}" name="Num_of_CToB" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{126CAC1C-527A-7C45-A6DC-AE8D786AFEB2}" name="Inh_of_CToB" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{3A5BEC77-7948-B44F-B423-C624DC2D418F}" name="Trd_of_BToC" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{5ADAF9EB-9152-B24A-8666-7081782D4BC8}" name="Num_of_BToC" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{38E6458D-CF60-2C4D-A45C-44DC1FC485E8}" name="Inh_of_BToC" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{A985B43F-E7B2-A841-A70E-D98BE0841E51}" name="Trd_of_AToC" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{7ADCD324-3A0A-3247-A4BE-08803BAFFEEE}" name="Num_of_AToC" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{113C0E39-09C6-1844-A2AC-25D04DCC027D}" name="Inh_of_AToC" dataDxfId="1"/>
     <tableColumn id="25" xr3:uid="{0F13F712-E945-934C-9DBF-9E48646BBDF3}" name="Inh_of_AToA"/>
     <tableColumn id="26" xr3:uid="{92EA5A74-C069-C449-A355-C016D8A5C969}" name="Inh_of_BToB"/>
     <tableColumn id="27" xr3:uid="{FE83AA66-C91A-FB42-8D2F-DEFBD0BD2F7E}" name="Inh_of_CToC"/>
@@ -1914,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7173F693-3072-4CAB-8185-A7D8451CC68B}">
   <dimension ref="A1:AI109"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A86" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11439,14 +11499,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7679D13-2DE8-8349-AB91-AF49399004AC}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="10" width="12.1640625" customWidth="1"/>
@@ -11469,119 +11530,121 @@
     <col min="32" max="33" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="31">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9">
-        <f>B2</f>
+      <c r="C2" s="11">
         <v>4</v>
       </c>
       <c r="D2" s="9">
@@ -11589,10 +11652,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="9">
-        <v>0.3</v>
+        <f>D2</f>
+        <v>4</v>
       </c>
       <c r="F2" s="9">
-        <f>E2</f>
         <v>0.3</v>
       </c>
       <c r="G2" s="9">
@@ -11600,81 +11663,85 @@
         <v>0.3</v>
       </c>
       <c r="H2" s="9">
-        <v>2</v>
+        <f>G2</f>
+        <v>0.3</v>
       </c>
       <c r="I2" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="9">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="9">
-        <v>3</v>
-      </c>
       <c r="L2" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="9">
+        <v>4</v>
+      </c>
+      <c r="N2" s="9">
         <v>1</v>
       </c>
-      <c r="N2" s="9">
-        <f t="shared" ref="N2" si="0">H2</f>
-        <v>2</v>
-      </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2" si="1">I2</f>
-        <v>3</v>
+        <f t="shared" ref="O2" si="0">I2</f>
+        <v>2</v>
       </c>
       <c r="P2" s="9">
-        <f t="shared" ref="P2" si="2">J2</f>
+        <f t="shared" ref="P2" si="1">J2</f>
+        <v>3</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2" si="2">K2</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="9">
-        <f t="shared" ref="Q2" si="3">K2</f>
-        <v>3</v>
-      </c>
       <c r="R2" s="9">
-        <f t="shared" ref="R2" si="4">L2</f>
-        <v>4</v>
+        <f t="shared" ref="R2" si="3">L2</f>
+        <v>3</v>
       </c>
       <c r="S2" s="9">
-        <f t="shared" ref="S2" si="5">M2</f>
+        <f t="shared" ref="S2" si="4">M2</f>
+        <v>4</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" ref="T2" si="5">N2</f>
         <v>1</v>
       </c>
-      <c r="T2" s="9">
-        <f t="shared" ref="T2" si="6">N2</f>
-        <v>2</v>
-      </c>
       <c r="U2" s="9">
-        <f t="shared" ref="U2" si="7">O2</f>
-        <v>3</v>
+        <f t="shared" ref="U2" si="6">O2</f>
+        <v>2</v>
       </c>
       <c r="V2" s="9">
-        <f t="shared" ref="V2" si="8">P2</f>
+        <f t="shared" ref="V2" si="7">P2</f>
+        <v>3</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" ref="W2" si="8">Q2</f>
         <v>1</v>
       </c>
-      <c r="W2" s="9">
-        <f t="shared" ref="W2" si="9">Q2</f>
-        <v>3</v>
-      </c>
       <c r="X2" s="9">
-        <f t="shared" ref="X2" si="10">R2</f>
-        <v>4</v>
-      </c>
-      <c r="Y2" s="10">
-        <f t="shared" ref="Y2" si="11">S2</f>
+        <f t="shared" ref="X2" si="9">R2</f>
+        <v>3</v>
+      </c>
+      <c r="Y2" s="9">
+        <f t="shared" ref="Y2" si="10">S2</f>
+        <v>4</v>
+      </c>
+      <c r="Z2" s="10">
+        <f t="shared" ref="Z2" si="11">T2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="29">
+        <f t="shared" ref="B3:B6" si="12">B2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="11">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9">
-        <f>B3</f>
+      <c r="C3" s="11">
         <v>4</v>
       </c>
       <c r="D3" s="9">
@@ -11682,10 +11749,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="9">
-        <v>0.3</v>
+        <f>D3</f>
+        <v>4</v>
       </c>
       <c r="F3" s="9">
-        <f>E3</f>
         <v>0.3</v>
       </c>
       <c r="G3" s="9">
@@ -11693,87 +11760,92 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="9">
-        <v>2</v>
+        <f>G3</f>
+        <v>0.3</v>
       </c>
       <c r="I3" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9">
         <v>0.1</v>
       </c>
-      <c r="K3" s="9">
-        <v>2</v>
-      </c>
       <c r="L3" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="9">
+        <v>3</v>
+      </c>
+      <c r="N3" s="9">
         <v>0.1</v>
       </c>
-      <c r="N3" s="9">
-        <f t="shared" ref="N3:Y3" si="12">H3</f>
-        <v>2</v>
-      </c>
       <c r="O3" s="9">
+        <f t="shared" ref="O3:Z3" si="13">I3</f>
+        <v>2</v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Y3" s="9">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="Z3" s="10">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="29">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="P3" s="9">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q3" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="R3" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S3" s="9">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="U3" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="V3" s="9">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="W3" s="9">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="X3" s="9">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="Y3" s="10">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
         <v>4</v>
       </c>
       <c r="D4" s="9">
         <v>4</v>
       </c>
       <c r="E4" s="9">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="9">
         <v>0.3</v>
@@ -11782,60 +11854,62 @@
         <v>0.3</v>
       </c>
       <c r="H4" s="9">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="9">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9">
         <v>0.1</v>
       </c>
-      <c r="K4" s="9">
-        <v>2</v>
-      </c>
       <c r="L4" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="9">
+        <v>3</v>
+      </c>
+      <c r="N4" s="9">
         <v>0.1</v>
       </c>
-      <c r="N4" s="9">
-        <v>2</v>
-      </c>
       <c r="O4" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="9">
         <v>0.1</v>
       </c>
-      <c r="Q4" s="9">
-        <v>2</v>
-      </c>
       <c r="R4" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="9">
+        <v>3</v>
+      </c>
+      <c r="T4" s="9">
         <v>0.9</v>
       </c>
-      <c r="T4" s="9">
-        <v>2</v>
-      </c>
       <c r="U4" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" s="9">
+        <v>3</v>
+      </c>
+      <c r="W4" s="9">
         <v>0.9</v>
       </c>
-      <c r="W4" s="9">
-        <v>2</v>
-      </c>
       <c r="X4" s="9">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="10">
         <v>0.1</v>
       </c>
-      <c r="Z4" s="30"/>
       <c r="AA4" s="30"/>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30"/>
@@ -11844,22 +11918,24 @@
       <c r="AF4" s="30"/>
       <c r="AG4" s="30"/>
       <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="29">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
         <v>4</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
       </c>
       <c r="E5" s="9">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9">
         <v>0.3</v>
@@ -11868,61 +11944,63 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="9">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="I5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
         <v>0.1</v>
       </c>
-      <c r="K5" s="9">
-        <v>2</v>
-      </c>
       <c r="L5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="9">
+        <v>3</v>
+      </c>
+      <c r="N5" s="9">
         <v>0.1</v>
       </c>
-      <c r="N5" s="9">
-        <v>2</v>
-      </c>
       <c r="O5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="9">
         <v>0.1</v>
       </c>
-      <c r="Q5" s="9">
-        <v>2</v>
-      </c>
       <c r="R5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5" s="9">
+        <v>3</v>
+      </c>
+      <c r="T5" s="9">
         <v>0.17</v>
       </c>
-      <c r="T5" s="9">
-        <v>2</v>
-      </c>
       <c r="U5" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5" s="9">
+        <v>3</v>
+      </c>
+      <c r="W5" s="9">
         <f>Table2[[#This Row],[Inh_of_CToB]]</f>
         <v>0.17</v>
       </c>
-      <c r="W5" s="9">
-        <v>2</v>
-      </c>
       <c r="X5" s="9">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="10">
         <v>0.1</v>
       </c>
-      <c r="Z5" s="30"/>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
@@ -11931,100 +12009,104 @@
       <c r="AF5" s="30"/>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9">
-        <f>B6</f>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="29">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
         <v>4</v>
       </c>
       <c r="D6" s="9">
-        <f>C6</f>
+        <f t="shared" ref="D6:E7" si="14">C6</f>
         <v>4</v>
       </c>
       <c r="E6" s="9">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
         <v>0.3</v>
       </c>
-      <c r="F6" s="9">
-        <f>E6</f>
+      <c r="G6" s="9">
+        <f t="shared" ref="G6:H7" si="15">F6</f>
         <v>0.3</v>
       </c>
-      <c r="G6" s="9">
-        <f>F6</f>
+      <c r="H6" s="9">
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
       <c r="I6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
         <v>0.1</v>
       </c>
-      <c r="K6" s="9">
-        <v>2</v>
-      </c>
       <c r="L6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" s="9">
+        <v>3</v>
+      </c>
+      <c r="N6" s="9">
         <v>0.9</v>
       </c>
-      <c r="N6" s="9">
-        <f t="shared" ref="N6:N7" si="13">H6</f>
-        <v>2</v>
-      </c>
       <c r="O6" s="9">
-        <f t="shared" ref="O6:O7" si="14">I6</f>
-        <v>3</v>
+        <f t="shared" ref="O6:O7" si="16">I6</f>
+        <v>2</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" ref="P6:P7" si="15">J6</f>
+        <f t="shared" ref="P6:P7" si="17">J6</f>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" ref="Q6:Q7" si="18">K6</f>
         <v>0.1</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" ref="Q6:Q7" si="16">K6</f>
-        <v>2</v>
-      </c>
       <c r="R6" s="9">
-        <f t="shared" ref="R6:R7" si="17">L6</f>
-        <v>3</v>
+        <f t="shared" ref="R6:R7" si="19">L6</f>
+        <v>2</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" ref="S6:S7" si="18">M6</f>
+        <f t="shared" ref="S6:S7" si="20">M6</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" ref="T6:T7" si="21">N6</f>
         <v>0.9</v>
       </c>
-      <c r="T6" s="9">
-        <f t="shared" ref="T6:T7" si="19">N6</f>
-        <v>2</v>
-      </c>
       <c r="U6" s="9">
-        <f t="shared" ref="U6:U7" si="20">O6</f>
-        <v>3</v>
+        <f t="shared" ref="U6:U7" si="22">O6</f>
+        <v>2</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" ref="V6:V7" si="21">P6</f>
+        <f t="shared" ref="V6:V7" si="23">P6</f>
+        <v>3</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" ref="W6:W7" si="24">Q6</f>
         <v>0.1</v>
       </c>
-      <c r="W6" s="9">
-        <f t="shared" ref="W6:W7" si="22">Q6</f>
-        <v>2</v>
-      </c>
       <c r="X6" s="9">
-        <f t="shared" ref="X6:X7" si="23">R6</f>
-        <v>3</v>
-      </c>
-      <c r="Y6" s="10">
-        <f t="shared" ref="Y6:Y7" si="24">S6</f>
+        <f t="shared" ref="X6:X7" si="25">R6</f>
+        <v>2</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" ref="Y6:Y7" si="26">S6</f>
+        <v>3</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" ref="Z6:Z7" si="27">T6</f>
         <v>0.9</v>
       </c>
-      <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
@@ -12033,103 +12115,104 @@
       <c r="AF6" s="30"/>
       <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>5</v>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="29">
-        <v>20</v>
-      </c>
-      <c r="C7" s="32">
-        <f>B7</f>
-        <v>20</v>
+        <f>B6+1</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="29">
+        <v>5</v>
       </c>
       <c r="D7" s="32">
-        <f>C7</f>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>5</v>
       </c>
       <c r="E7" s="32">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="32">
         <v>0.9</v>
       </c>
-      <c r="F7" s="32">
-        <f>E7</f>
+      <c r="G7" s="32">
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
-      <c r="G7" s="32">
-        <f>F7</f>
+      <c r="H7" s="32">
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
-      <c r="H7" s="32">
-        <v>2</v>
-      </c>
       <c r="I7" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="32">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="K7" s="32">
-        <f>Table2[[#This Row],[Trd_of_CToA]]</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="32">
-        <f>Table2[[#This Row],[Num_of_CToA]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" s="32">
-        <f>Table2[[#This Row],[Inh_of_CToA]]</f>
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="N7" s="32">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="32">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="P7" s="32">
-        <f t="shared" si="15"/>
-        <v>0.15</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="Q7" s="32">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0.1</v>
       </c>
       <c r="R7" s="32">
-        <f t="shared" si="17"/>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="S7" s="32">
-        <f t="shared" si="18"/>
-        <v>0.15</v>
+        <f t="shared" si="20"/>
+        <v>3</v>
       </c>
       <c r="T7" s="32">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="U7" s="32">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="V7" s="32">
-        <f t="shared" si="21"/>
-        <v>0.15</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="W7" s="32">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="24"/>
+        <v>0.1</v>
       </c>
       <c r="X7" s="32">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="Y7" s="33">
-        <f t="shared" si="24"/>
-        <v>0.15</v>
-      </c>
-      <c r="Z7" s="30"/>
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="32">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
       <c r="AA7" s="30"/>
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
@@ -12138,10 +12221,11 @@
       <c r="AF7" s="30"/>
       <c r="AG7" s="30"/>
       <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="colorScale" priority="100">
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12152,8 +12236,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="colorScale" priority="101">
+  <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12164,8 +12248,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M4">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="N3:N4">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12176,8 +12260,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J4">
-    <cfRule type="colorScale" priority="102">
+  <conditionalFormatting sqref="K3:K4">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12188,7 +12272,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="K2">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N4">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q4">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T4">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W4">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z4">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T4">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W4">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -12200,7 +12404,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
+  <conditionalFormatting sqref="K5">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -12212,43 +12440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P4">
+  <conditionalFormatting sqref="K5">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -12260,7 +12452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S4">
+  <conditionalFormatting sqref="N5">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -12272,7 +12464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V4">
+  <conditionalFormatting sqref="Q5">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -12284,7 +12476,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y4">
+  <conditionalFormatting sqref="T5">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -12296,7 +12500,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S4">
+  <conditionalFormatting sqref="Z5">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:S1048576 T1:T5">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W5">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z5">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T5">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q5">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -12308,7 +12608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V4">
+  <conditionalFormatting sqref="N2:N5">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -12320,8 +12620,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="73">
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12332,8 +12632,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="N6">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12344,187 +12644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S5 S8:S1048576">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V5">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y5">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S5">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P5">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M5">
+  <conditionalFormatting sqref="K6">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -12536,8 +12656,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12548,8 +12668,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="N6">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12560,8 +12680,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12572,8 +12692,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="T6">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12584,8 +12704,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="W6">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12596,8 +12716,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12608,8 +12728,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="T6">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12620,8 +12740,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="W6">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12632,8 +12752,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="T6">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12644,8 +12764,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="W6">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12656,8 +12776,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="Z6">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12668,8 +12788,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="T6">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12680,8 +12800,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="Q6">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12692,8 +12812,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12704,8 +12824,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="N6">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12716,43 +12836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="K7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12764,7 +12848,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
+  <conditionalFormatting sqref="N7">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -12776,7 +12860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="K7">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -12788,7 +12872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="K7">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -12800,7 +12884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
+  <conditionalFormatting sqref="N7">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -12812,7 +12896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12824,7 +12908,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -12836,7 +12920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
+  <conditionalFormatting sqref="W7">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12848,7 +12932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
+  <conditionalFormatting sqref="Z7">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -12860,7 +12944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12872,7 +12956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
+  <conditionalFormatting sqref="W7">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -12884,7 +12968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12896,7 +12980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
+  <conditionalFormatting sqref="W7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12908,7 +12992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
+  <conditionalFormatting sqref="Z7">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12920,7 +13004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7">
+  <conditionalFormatting sqref="T7">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12932,7 +13016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12944,7 +13028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+  <conditionalFormatting sqref="K7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12956,7 +13040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
+  <conditionalFormatting sqref="N7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12968,8 +13052,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J7 M2:M7 P2:P7 S2:S7 V2:V7 Y2:Y7">
+  <conditionalFormatting sqref="K7 N7 Q7 T7 W7 Z7">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K7 N2:N7 Q2:Q7 T2:T7 W2:W7 Z2:Z7">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
